--- a/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
+++ b/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn2code\desinventar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn2code\python_pandas\desinventar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" tabRatio="322" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DRR_2_DES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="1744">
   <si>
     <t>District</t>
   </si>
@@ -5249,6 +5249,15 @@
   </si>
   <si>
     <t>Jit Bdr. Thapa</t>
+  </si>
+  <si>
+    <t>Lete</t>
+  </si>
+  <si>
+    <t>Pandav Gupha</t>
+  </si>
+  <si>
+    <t>Tribeni Nalagad</t>
   </si>
 </sst>
 </file>
@@ -19913,132 +19922,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>1682</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1683</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1684</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1685</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1686</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>1687</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>1688</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>1689</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>1690</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>1691</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>1692</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>1693</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>1694</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>1695</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>1696</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>1697</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>1698</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>1699</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>1700</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>1701</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>1702</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>1703</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>1704</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>1705</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>1706</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C2">
         <v>11759</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>43105</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>1708</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -20050,16 +20057,16 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>300000</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20086,42 +20093,42 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>1709</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>11810</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>83</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>163</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>1711</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>43109</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>1708</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -20133,16 +20140,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -20168,40 +20175,40 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
         <v>1709</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C4">
         <v>11820</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>177</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>43109</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>1708</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -20213,28 +20220,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
+        <v>55000</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -20251,40 +20258,40 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
         <v>1709</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>11895</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>282</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>43113</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>1708</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -20296,16 +20303,16 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>200000</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -20329,45 +20336,45 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>1709</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>11902</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>175</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>286</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>43113</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>1708</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -20379,28 +20386,28 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>365000</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -20417,40 +20424,40 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
         <v>1709</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>11912</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>185</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>294</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>295</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>43115</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1708</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -20462,28 +20469,28 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>300000</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -20500,40 +20507,40 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
         <v>1709</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>12006</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>279</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>294</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>404</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>43127</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>1708</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -20545,25 +20552,25 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -20575,45 +20582,45 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
         <v>1709</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>12021</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>294</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>294</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>418</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>43130</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>1708</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -20625,28 +20632,28 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>500000</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -20663,40 +20670,40 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
         <v>1718</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>12210</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>483</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>621</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>43152</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>1708</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -20708,28 +20715,28 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1256000</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
+        <v>1256000</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -20746,40 +20753,40 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
         <v>1709</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>12261</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>534</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>166</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>652</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>1721</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>43159</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>1708</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -20791,28 +20798,28 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>60000</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -20829,61 +20836,61 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1709</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>13383</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>1656</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>179</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1114</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>43251</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>1723</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -20909,40 +20916,40 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
         <v>1709</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>13471</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>1744</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>473</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>1139</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>43260</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>1725</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -20954,16 +20961,16 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>15000000</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -20992,40 +20999,40 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
         <v>1709</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>13999</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>2272</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>463</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1252</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>43316</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>1727</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21037,16 +21044,16 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>60000</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21055,13 +21062,13 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21075,40 +21082,46 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
         <v>1728</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C15">
         <v>14137</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>2410</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>1277</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>43326</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>1727</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -21120,28 +21133,28 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1058000</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -21158,40 +21171,46 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
         <v>1730</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C16">
         <v>14419</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>2692</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>363</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>1320</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>43349</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>1723</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -21203,13 +21222,13 @@
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>2</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21233,48 +21252,54 @@
         <v>0</v>
       </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>6</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>2</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>1732</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C17">
         <v>14647</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>2920</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>242</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>1345</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>43375</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>1734</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -21282,11 +21307,11 @@
       <c r="N17">
         <v>1</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21315,40 +21340,40 @@
       <c r="Z17">
         <v>0</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
         <v>1709</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>15278</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>3551</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>363</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>1382</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>43438</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>1736</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -21360,16 +21385,16 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -21395,37 +21420,37 @@
       <c r="Z18">
         <v>0</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>17706</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>5979</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>242</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>1468</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>43608</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>1708</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -21437,28 +21462,28 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>295000</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -21475,43 +21500,49 @@
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
         <v>1709</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C20">
         <v>20208</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>8481</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>153</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>1510</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>1739</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>43832</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>1708</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -21523,28 +21554,28 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1017500</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -21559,9 +21590,15 @@
         <v>0</v>
       </c>
       <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>1740</v>
       </c>
     </row>

--- a/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
+++ b/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" tabRatio="322" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="DRR_2_DES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="1753">
   <si>
     <t>District</t>
   </si>
@@ -5251,13 +5251,40 @@
     <t>Jit Bdr. Thapa</t>
   </si>
   <si>
-    <t>Lete</t>
-  </si>
-  <si>
     <t>Pandav Gupha</t>
   </si>
   <si>
     <t>Tribeni Nalagad</t>
+  </si>
+  <si>
+    <t>Parbati Kunda</t>
+  </si>
+  <si>
+    <t>Lamidanda</t>
+  </si>
+  <si>
+    <t>Sukidaha</t>
+  </si>
+  <si>
+    <t>Duikholi</t>
+  </si>
+  <si>
+    <t>Dudhkaushika</t>
+  </si>
+  <si>
+    <t>Belhi Chapena</t>
+  </si>
+  <si>
+    <t>Barah</t>
+  </si>
+  <si>
+    <t>Dudhkoshi</t>
+  </si>
+  <si>
+    <t>Chhededaha</t>
+  </si>
+  <si>
+    <t>Dalome</t>
   </si>
 </sst>
 </file>
@@ -6082,13 +6109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E815"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6114,7 +6141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6131,7 +6158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6148,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6165,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -6182,7 +6209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6199,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -6216,7 +6243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -6233,7 +6260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -6250,7 +6277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -6267,7 +6294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -6284,7 +6311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -6301,7 +6328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -6318,7 +6345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -6335,7 +6362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -6352,7 +6379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -6369,7 +6396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -6386,7 +6413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27</v>
       </c>
@@ -6403,7 +6430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -6420,7 +6447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -6437,7 +6464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -6454,7 +6481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -6471,7 +6498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -6488,7 +6515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -6505,7 +6532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>36</v>
       </c>
@@ -6522,7 +6549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39</v>
       </c>
@@ -6539,7 +6566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41</v>
       </c>
@@ -6556,7 +6583,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42</v>
       </c>
@@ -6573,7 +6600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44</v>
       </c>
@@ -6590,7 +6617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46</v>
       </c>
@@ -6607,7 +6634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48</v>
       </c>
@@ -6624,7 +6651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>50</v>
       </c>
@@ -6641,7 +6668,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>51</v>
       </c>
@@ -6658,7 +6685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>52</v>
       </c>
@@ -6675,7 +6702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>53</v>
       </c>
@@ -6692,7 +6719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>56</v>
       </c>
@@ -6709,7 +6736,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>58</v>
       </c>
@@ -6726,7 +6753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -6743,7 +6770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>62</v>
       </c>
@@ -6760,7 +6787,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>64</v>
       </c>
@@ -6777,7 +6804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>65</v>
       </c>
@@ -6794,7 +6821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>66</v>
       </c>
@@ -6811,7 +6838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>67</v>
       </c>
@@ -6828,7 +6855,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>68</v>
       </c>
@@ -6845,7 +6872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>69</v>
       </c>
@@ -6862,7 +6889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>70</v>
       </c>
@@ -6879,7 +6906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>71</v>
       </c>
@@ -6896,7 +6923,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>74</v>
       </c>
@@ -6930,7 +6957,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>77</v>
       </c>
@@ -6947,7 +6974,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>78</v>
       </c>
@@ -6964,7 +6991,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>79</v>
       </c>
@@ -6981,7 +7008,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>80</v>
       </c>
@@ -6998,7 +7025,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>82</v>
       </c>
@@ -7015,7 +7042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>83</v>
       </c>
@@ -7032,7 +7059,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>84</v>
       </c>
@@ -7049,7 +7076,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>85</v>
       </c>
@@ -7066,7 +7093,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>86</v>
       </c>
@@ -7083,7 +7110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>87</v>
       </c>
@@ -7100,7 +7127,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>88</v>
       </c>
@@ -7117,7 +7144,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>89</v>
       </c>
@@ -7151,7 +7178,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>91</v>
       </c>
@@ -7168,7 +7195,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>92</v>
       </c>
@@ -7185,7 +7212,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>93</v>
       </c>
@@ -7202,7 +7229,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>94</v>
       </c>
@@ -7219,7 +7246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>95</v>
       </c>
@@ -7236,7 +7263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>96</v>
       </c>
@@ -7270,7 +7297,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>98</v>
       </c>
@@ -7287,7 +7314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>99</v>
       </c>
@@ -7304,7 +7331,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>100</v>
       </c>
@@ -7321,7 +7348,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>101</v>
       </c>
@@ -7338,7 +7365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>102</v>
       </c>
@@ -7355,7 +7382,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>103</v>
       </c>
@@ -7372,7 +7399,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>106</v>
       </c>
@@ -7389,7 +7416,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>107</v>
       </c>
@@ -7406,7 +7433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>110</v>
       </c>
@@ -7423,7 +7450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>112</v>
       </c>
@@ -7440,7 +7467,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>116</v>
       </c>
@@ -7457,7 +7484,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>117</v>
       </c>
@@ -7474,7 +7501,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>118</v>
       </c>
@@ -7491,7 +7518,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>119</v>
       </c>
@@ -7508,7 +7535,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>120</v>
       </c>
@@ -7525,7 +7552,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>121</v>
       </c>
@@ -7542,7 +7569,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>122</v>
       </c>
@@ -7559,7 +7586,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>123</v>
       </c>
@@ -7576,7 +7603,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>125</v>
       </c>
@@ -7593,7 +7620,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>127</v>
       </c>
@@ -7610,7 +7637,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>128</v>
       </c>
@@ -7627,7 +7654,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>129</v>
       </c>
@@ -7644,7 +7671,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>131</v>
       </c>
@@ -7661,7 +7688,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>134</v>
       </c>
@@ -7678,7 +7705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>136</v>
       </c>
@@ -7695,7 +7722,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>138</v>
       </c>
@@ -7712,7 +7739,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>139</v>
       </c>
@@ -7729,7 +7756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>140</v>
       </c>
@@ -7746,7 +7773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>141</v>
       </c>
@@ -7763,7 +7790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>142</v>
       </c>
@@ -7780,7 +7807,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>147</v>
       </c>
@@ -7797,7 +7824,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>148</v>
       </c>
@@ -7814,7 +7841,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>149</v>
       </c>
@@ -7831,7 +7858,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>150</v>
       </c>
@@ -7848,7 +7875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>152</v>
       </c>
@@ -7865,7 +7892,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>153</v>
       </c>
@@ -7882,7 +7909,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>154</v>
       </c>
@@ -7899,7 +7926,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>155</v>
       </c>
@@ -7916,7 +7943,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>156</v>
       </c>
@@ -7933,7 +7960,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>158</v>
       </c>
@@ -7950,7 +7977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>159</v>
       </c>
@@ -7967,7 +7994,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>160</v>
       </c>
@@ -7984,7 +8011,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>161</v>
       </c>
@@ -8001,7 +8028,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>162</v>
       </c>
@@ -8018,7 +8045,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>164</v>
       </c>
@@ -8052,7 +8079,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>166</v>
       </c>
@@ -8069,7 +8096,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>167</v>
       </c>
@@ -8086,7 +8113,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>168</v>
       </c>
@@ -8103,7 +8130,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>169</v>
       </c>
@@ -8120,7 +8147,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>170</v>
       </c>
@@ -8137,7 +8164,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>171</v>
       </c>
@@ -8154,7 +8181,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>172</v>
       </c>
@@ -8171,7 +8198,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>173</v>
       </c>
@@ -8188,7 +8215,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>174</v>
       </c>
@@ -8205,7 +8232,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>176</v>
       </c>
@@ -8222,7 +8249,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>177</v>
       </c>
@@ -8239,7 +8266,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>178</v>
       </c>
@@ -8256,7 +8283,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>179</v>
       </c>
@@ -8273,7 +8300,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>181</v>
       </c>
@@ -8290,7 +8317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>182</v>
       </c>
@@ -8307,7 +8334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>184</v>
       </c>
@@ -8324,7 +8351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>185</v>
       </c>
@@ -8341,7 +8368,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>186</v>
       </c>
@@ -8358,7 +8385,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>187</v>
       </c>
@@ -8375,7 +8402,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>190</v>
       </c>
@@ -8392,7 +8419,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>191</v>
       </c>
@@ -8409,7 +8436,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>192</v>
       </c>
@@ -8426,7 +8453,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>194</v>
       </c>
@@ -8443,7 +8470,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>195</v>
       </c>
@@ -8460,7 +8487,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>196</v>
       </c>
@@ -8494,7 +8521,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>198</v>
       </c>
@@ -8511,7 +8538,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>199</v>
       </c>
@@ -8528,7 +8555,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>202</v>
       </c>
@@ -8545,7 +8572,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>203</v>
       </c>
@@ -8562,7 +8589,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>204</v>
       </c>
@@ -8579,7 +8606,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>207</v>
       </c>
@@ -8596,7 +8623,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>208</v>
       </c>
@@ -8613,7 +8640,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>209</v>
       </c>
@@ -8630,7 +8657,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>210</v>
       </c>
@@ -8647,7 +8674,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>211</v>
       </c>
@@ -8664,7 +8691,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>213</v>
       </c>
@@ -8681,7 +8708,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>214</v>
       </c>
@@ -8698,7 +8725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>215</v>
       </c>
@@ -8715,7 +8742,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>217</v>
       </c>
@@ -8732,7 +8759,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>218</v>
       </c>
@@ -8749,7 +8776,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>219</v>
       </c>
@@ -8766,7 +8793,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>220</v>
       </c>
@@ -8783,7 +8810,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>221</v>
       </c>
@@ -8800,7 +8827,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>223</v>
       </c>
@@ -8817,7 +8844,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>226</v>
       </c>
@@ -8834,7 +8861,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>228</v>
       </c>
@@ -8851,7 +8878,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>229</v>
       </c>
@@ -8868,7 +8895,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>230</v>
       </c>
@@ -8885,7 +8912,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>231</v>
       </c>
@@ -8902,7 +8929,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>232</v>
       </c>
@@ -8919,7 +8946,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>233</v>
       </c>
@@ -8987,7 +9014,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>237</v>
       </c>
@@ -9004,7 +9031,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>239</v>
       </c>
@@ -9021,7 +9048,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>240</v>
       </c>
@@ -9038,7 +9065,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>241</v>
       </c>
@@ -9055,7 +9082,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>242</v>
       </c>
@@ -9072,7 +9099,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>243</v>
       </c>
@@ -9089,7 +9116,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>244</v>
       </c>
@@ -9106,7 +9133,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>246</v>
       </c>
@@ -9123,7 +9150,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>247</v>
       </c>
@@ -9140,7 +9167,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>248</v>
       </c>
@@ -9157,7 +9184,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>249</v>
       </c>
@@ -9174,7 +9201,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>250</v>
       </c>
@@ -9191,7 +9218,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>251</v>
       </c>
@@ -9208,7 +9235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>252</v>
       </c>
@@ -9225,7 +9252,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>254</v>
       </c>
@@ -9242,7 +9269,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>255</v>
       </c>
@@ -9259,7 +9286,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>257</v>
       </c>
@@ -9276,7 +9303,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>258</v>
       </c>
@@ -9310,7 +9337,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>260</v>
       </c>
@@ -9327,7 +9354,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>261</v>
       </c>
@@ -9344,7 +9371,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>263</v>
       </c>
@@ -9361,7 +9388,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>264</v>
       </c>
@@ -9378,7 +9405,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>265</v>
       </c>
@@ -9395,7 +9422,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>266</v>
       </c>
@@ -9412,7 +9439,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>267</v>
       </c>
@@ -9429,7 +9456,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>269</v>
       </c>
@@ -9446,7 +9473,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>270</v>
       </c>
@@ -9463,7 +9490,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>271</v>
       </c>
@@ -9480,7 +9507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>274</v>
       </c>
@@ -9497,7 +9524,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>276</v>
       </c>
@@ -9514,7 +9541,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>277</v>
       </c>
@@ -9531,7 +9558,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>278</v>
       </c>
@@ -9548,7 +9575,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>279</v>
       </c>
@@ -9565,7 +9592,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>281</v>
       </c>
@@ -9582,7 +9609,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>282</v>
       </c>
@@ -9599,7 +9626,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>283</v>
       </c>
@@ -9616,7 +9643,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>284</v>
       </c>
@@ -9633,7 +9660,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>285</v>
       </c>
@@ -9650,7 +9677,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>286</v>
       </c>
@@ -9667,7 +9694,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>287</v>
       </c>
@@ -9684,7 +9711,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>288</v>
       </c>
@@ -9701,7 +9728,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>289</v>
       </c>
@@ -9718,7 +9745,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>290</v>
       </c>
@@ -9735,7 +9762,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>291</v>
       </c>
@@ -9752,7 +9779,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>292</v>
       </c>
@@ -9769,7 +9796,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>293</v>
       </c>
@@ -9786,7 +9813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>294</v>
       </c>
@@ -9803,7 +9830,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>295</v>
       </c>
@@ -9820,7 +9847,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>297</v>
       </c>
@@ -9837,7 +9864,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>298</v>
       </c>
@@ -9854,7 +9881,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>299</v>
       </c>
@@ -9871,7 +9898,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>302</v>
       </c>
@@ -9888,7 +9915,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>303</v>
       </c>
@@ -9905,7 +9932,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>304</v>
       </c>
@@ -9922,7 +9949,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>305</v>
       </c>
@@ -9939,7 +9966,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>306</v>
       </c>
@@ -9956,7 +9983,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>307</v>
       </c>
@@ -9973,7 +10000,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>313</v>
       </c>
@@ -9990,7 +10017,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>314</v>
       </c>
@@ -10007,7 +10034,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>315</v>
       </c>
@@ -10024,7 +10051,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>316</v>
       </c>
@@ -10041,7 +10068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>317</v>
       </c>
@@ -10058,7 +10085,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>319</v>
       </c>
@@ -10075,7 +10102,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>321</v>
       </c>
@@ -10092,7 +10119,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>323</v>
       </c>
@@ -10109,7 +10136,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>324</v>
       </c>
@@ -10126,7 +10153,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>325</v>
       </c>
@@ -10143,7 +10170,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>326</v>
       </c>
@@ -10160,7 +10187,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>327</v>
       </c>
@@ -10194,7 +10221,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>329</v>
       </c>
@@ -10211,7 +10238,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>330</v>
       </c>
@@ -10228,7 +10255,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>331</v>
       </c>
@@ -10245,7 +10272,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>332</v>
       </c>
@@ -10262,7 +10289,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>335</v>
       </c>
@@ -10279,7 +10306,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>336</v>
       </c>
@@ -10296,7 +10323,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>337</v>
       </c>
@@ -10313,7 +10340,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>338</v>
       </c>
@@ -10330,7 +10357,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>339</v>
       </c>
@@ -10347,7 +10374,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>341</v>
       </c>
@@ -10364,7 +10391,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>342</v>
       </c>
@@ -10381,7 +10408,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>343</v>
       </c>
@@ -10398,7 +10425,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>344</v>
       </c>
@@ -10415,7 +10442,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>345</v>
       </c>
@@ -10432,7 +10459,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>348</v>
       </c>
@@ -10449,7 +10476,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>350</v>
       </c>
@@ -10466,7 +10493,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>351</v>
       </c>
@@ -10483,7 +10510,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>353</v>
       </c>
@@ -10500,7 +10527,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>355</v>
       </c>
@@ -10517,7 +10544,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>356</v>
       </c>
@@ -10534,7 +10561,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>357</v>
       </c>
@@ -10551,7 +10578,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>358</v>
       </c>
@@ -10568,7 +10595,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>359</v>
       </c>
@@ -10585,7 +10612,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>360</v>
       </c>
@@ -10602,7 +10629,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>361</v>
       </c>
@@ -10619,7 +10646,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>362</v>
       </c>
@@ -10653,7 +10680,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>364</v>
       </c>
@@ -10670,7 +10697,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>365</v>
       </c>
@@ -10687,7 +10714,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>366</v>
       </c>
@@ -10704,7 +10731,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>367</v>
       </c>
@@ -10721,7 +10748,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>368</v>
       </c>
@@ -10738,7 +10765,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>369</v>
       </c>
@@ -10755,7 +10782,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>370</v>
       </c>
@@ -10772,7 +10799,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>372</v>
       </c>
@@ -10789,7 +10816,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>374</v>
       </c>
@@ -10806,7 +10833,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>375</v>
       </c>
@@ -10823,7 +10850,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>377</v>
       </c>
@@ -10840,7 +10867,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>378</v>
       </c>
@@ -10857,7 +10884,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>379</v>
       </c>
@@ -10874,7 +10901,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>380</v>
       </c>
@@ -10891,7 +10918,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>381</v>
       </c>
@@ -10908,7 +10935,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>382</v>
       </c>
@@ -10925,7 +10952,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>383</v>
       </c>
@@ -10942,7 +10969,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>384</v>
       </c>
@@ -10959,7 +10986,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>387</v>
       </c>
@@ -10976,7 +11003,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>388</v>
       </c>
@@ -10993,7 +11020,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>389</v>
       </c>
@@ -11010,7 +11037,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>392</v>
       </c>
@@ -11027,7 +11054,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>394</v>
       </c>
@@ -11044,7 +11071,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>395</v>
       </c>
@@ -11061,7 +11088,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>397</v>
       </c>
@@ -11078,7 +11105,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>398</v>
       </c>
@@ -11095,7 +11122,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>400</v>
       </c>
@@ -11112,7 +11139,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>401</v>
       </c>
@@ -11129,7 +11156,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>405</v>
       </c>
@@ -11146,7 +11173,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>406</v>
       </c>
@@ -11163,7 +11190,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>407</v>
       </c>
@@ -11180,7 +11207,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>408</v>
       </c>
@@ -11197,7 +11224,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>409</v>
       </c>
@@ -11214,7 +11241,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>410</v>
       </c>
@@ -11231,7 +11258,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>411</v>
       </c>
@@ -11248,7 +11275,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>413</v>
       </c>
@@ -11265,7 +11292,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>414</v>
       </c>
@@ -11282,7 +11309,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>416</v>
       </c>
@@ -11299,7 +11326,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>417</v>
       </c>
@@ -11316,7 +11343,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>418</v>
       </c>
@@ -11333,7 +11360,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>419</v>
       </c>
@@ -11350,7 +11377,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>421</v>
       </c>
@@ -11367,7 +11394,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>423</v>
       </c>
@@ -11384,7 +11411,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>424</v>
       </c>
@@ -11401,7 +11428,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>425</v>
       </c>
@@ -11418,7 +11445,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>426</v>
       </c>
@@ -11435,7 +11462,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>427</v>
       </c>
@@ -11452,7 +11479,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>428</v>
       </c>
@@ -11469,7 +11496,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>429</v>
       </c>
@@ -11486,7 +11513,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>431</v>
       </c>
@@ -11503,7 +11530,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>432</v>
       </c>
@@ -11520,7 +11547,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>433</v>
       </c>
@@ -11537,7 +11564,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>434</v>
       </c>
@@ -11554,7 +11581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>436</v>
       </c>
@@ -11571,7 +11598,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>437</v>
       </c>
@@ -11588,7 +11615,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>441</v>
       </c>
@@ -11605,7 +11632,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>442</v>
       </c>
@@ -11622,7 +11649,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>443</v>
       </c>
@@ -11639,7 +11666,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>444</v>
       </c>
@@ -11656,7 +11683,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>445</v>
       </c>
@@ -11673,7 +11700,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>446</v>
       </c>
@@ -11690,7 +11717,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>447</v>
       </c>
@@ -11707,7 +11734,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>448</v>
       </c>
@@ -11724,7 +11751,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>450</v>
       </c>
@@ -11741,7 +11768,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>451</v>
       </c>
@@ -11758,7 +11785,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>453</v>
       </c>
@@ -11775,7 +11802,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>456</v>
       </c>
@@ -11792,7 +11819,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>457</v>
       </c>
@@ -11809,7 +11836,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>458</v>
       </c>
@@ -11826,7 +11853,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>459</v>
       </c>
@@ -11843,7 +11870,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>460</v>
       </c>
@@ -11860,7 +11887,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>461</v>
       </c>
@@ -11877,7 +11904,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>462</v>
       </c>
@@ -11894,7 +11921,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>464</v>
       </c>
@@ -11911,7 +11938,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>465</v>
       </c>
@@ -11928,7 +11955,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>467</v>
       </c>
@@ -11945,7 +11972,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>469</v>
       </c>
@@ -11962,7 +11989,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>471</v>
       </c>
@@ -11979,7 +12006,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>473</v>
       </c>
@@ -11996,7 +12023,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>474</v>
       </c>
@@ -12013,7 +12040,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>475</v>
       </c>
@@ -12030,7 +12057,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>476</v>
       </c>
@@ -12047,7 +12074,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>480</v>
       </c>
@@ -12064,7 +12091,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>481</v>
       </c>
@@ -12081,7 +12108,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>483</v>
       </c>
@@ -12098,7 +12125,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>484</v>
       </c>
@@ -12115,7 +12142,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>485</v>
       </c>
@@ -12132,7 +12159,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>486</v>
       </c>
@@ -12166,7 +12193,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>489</v>
       </c>
@@ -12183,7 +12210,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>490</v>
       </c>
@@ -12200,7 +12227,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>491</v>
       </c>
@@ -12217,7 +12244,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>493</v>
       </c>
@@ -12234,7 +12261,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>494</v>
       </c>
@@ -12251,7 +12278,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>497</v>
       </c>
@@ -12268,7 +12295,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>498</v>
       </c>
@@ -12285,7 +12312,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>499</v>
       </c>
@@ -12302,7 +12329,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>501</v>
       </c>
@@ -12319,7 +12346,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>502</v>
       </c>
@@ -12336,7 +12363,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>504</v>
       </c>
@@ -12353,7 +12380,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>505</v>
       </c>
@@ -12370,7 +12397,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>506</v>
       </c>
@@ -12387,7 +12414,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>507</v>
       </c>
@@ -12404,7 +12431,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>508</v>
       </c>
@@ -12421,7 +12448,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>509</v>
       </c>
@@ -12438,7 +12465,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>510</v>
       </c>
@@ -12455,7 +12482,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>511</v>
       </c>
@@ -12472,7 +12499,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>512</v>
       </c>
@@ -12489,7 +12516,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>514</v>
       </c>
@@ -12506,7 +12533,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>515</v>
       </c>
@@ -12523,7 +12550,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>516</v>
       </c>
@@ -12540,7 +12567,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>517</v>
       </c>
@@ -12557,7 +12584,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>519</v>
       </c>
@@ -12574,7 +12601,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>521</v>
       </c>
@@ -12591,7 +12618,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>523</v>
       </c>
@@ -12608,7 +12635,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>524</v>
       </c>
@@ -12625,7 +12652,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>525</v>
       </c>
@@ -12642,7 +12669,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>529</v>
       </c>
@@ -12659,7 +12686,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>531</v>
       </c>
@@ -12676,7 +12703,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>532</v>
       </c>
@@ -12693,7 +12720,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>533</v>
       </c>
@@ -12710,7 +12737,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>534</v>
       </c>
@@ -12727,7 +12754,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>535</v>
       </c>
@@ -12744,7 +12771,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>536</v>
       </c>
@@ -12761,7 +12788,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>537</v>
       </c>
@@ -12778,7 +12805,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>538</v>
       </c>
@@ -12812,7 +12839,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>540</v>
       </c>
@@ -12829,7 +12856,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>541</v>
       </c>
@@ -12846,7 +12873,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>542</v>
       </c>
@@ -12863,7 +12890,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>546</v>
       </c>
@@ -12880,7 +12907,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>547</v>
       </c>
@@ -12897,7 +12924,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>548</v>
       </c>
@@ -12914,7 +12941,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>549</v>
       </c>
@@ -12931,7 +12958,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>550</v>
       </c>
@@ -12948,7 +12975,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>552</v>
       </c>
@@ -12965,7 +12992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>553</v>
       </c>
@@ -12982,7 +13009,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>554</v>
       </c>
@@ -12999,7 +13026,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>555</v>
       </c>
@@ -13016,7 +13043,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>556</v>
       </c>
@@ -13033,7 +13060,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>557</v>
       </c>
@@ -13050,7 +13077,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>558</v>
       </c>
@@ -13067,7 +13094,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>559</v>
       </c>
@@ -13118,7 +13145,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>563</v>
       </c>
@@ -13135,7 +13162,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>564</v>
       </c>
@@ -13152,7 +13179,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>566</v>
       </c>
@@ -13169,7 +13196,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>567</v>
       </c>
@@ -13186,7 +13213,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>568</v>
       </c>
@@ -13203,7 +13230,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>569</v>
       </c>
@@ -13220,7 +13247,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>570</v>
       </c>
@@ -13237,7 +13264,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>571</v>
       </c>
@@ -13254,7 +13281,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>572</v>
       </c>
@@ -13288,7 +13315,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>575</v>
       </c>
@@ -13305,7 +13332,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>576</v>
       </c>
@@ -13322,7 +13349,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>579</v>
       </c>
@@ -13339,7 +13366,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>580</v>
       </c>
@@ -13356,7 +13383,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>584</v>
       </c>
@@ -13373,7 +13400,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>585</v>
       </c>
@@ -13390,7 +13417,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>586</v>
       </c>
@@ -13407,7 +13434,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>587</v>
       </c>
@@ -13424,7 +13451,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>588</v>
       </c>
@@ -13441,7 +13468,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>589</v>
       </c>
@@ -13458,7 +13485,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>590</v>
       </c>
@@ -13475,7 +13502,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>594</v>
       </c>
@@ -13492,7 +13519,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>597</v>
       </c>
@@ -13509,7 +13536,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>598</v>
       </c>
@@ -13526,7 +13553,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>599</v>
       </c>
@@ -13543,7 +13570,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>601</v>
       </c>
@@ -13560,7 +13587,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>602</v>
       </c>
@@ -13577,7 +13604,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>604</v>
       </c>
@@ -13594,7 +13621,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>606</v>
       </c>
@@ -13611,7 +13638,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>607</v>
       </c>
@@ -13628,7 +13655,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>608</v>
       </c>
@@ -13645,7 +13672,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>609</v>
       </c>
@@ -13662,7 +13689,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>610</v>
       </c>
@@ -13679,7 +13706,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>611</v>
       </c>
@@ -13696,7 +13723,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>612</v>
       </c>
@@ -13713,7 +13740,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>613</v>
       </c>
@@ -13730,7 +13757,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>614</v>
       </c>
@@ -13747,7 +13774,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>615</v>
       </c>
@@ -13764,7 +13791,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>616</v>
       </c>
@@ -13781,7 +13808,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>617</v>
       </c>
@@ -13798,7 +13825,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>618</v>
       </c>
@@ -13815,7 +13842,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>621</v>
       </c>
@@ -13832,7 +13859,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>624</v>
       </c>
@@ -13849,7 +13876,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>625</v>
       </c>
@@ -13866,7 +13893,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>626</v>
       </c>
@@ -13883,7 +13910,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>627</v>
       </c>
@@ -13900,7 +13927,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>628</v>
       </c>
@@ -13917,7 +13944,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>629</v>
       </c>
@@ -13934,7 +13961,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>630</v>
       </c>
@@ -13951,7 +13978,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>631</v>
       </c>
@@ -13968,7 +13995,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>632</v>
       </c>
@@ -13985,7 +14012,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>634</v>
       </c>
@@ -14002,7 +14029,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>635</v>
       </c>
@@ -14019,7 +14046,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>636</v>
       </c>
@@ -14036,7 +14063,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>637</v>
       </c>
@@ -14053,7 +14080,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>638</v>
       </c>
@@ -14070,7 +14097,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>639</v>
       </c>
@@ -14087,7 +14114,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>640</v>
       </c>
@@ -14121,7 +14148,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>642</v>
       </c>
@@ -14138,7 +14165,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>646</v>
       </c>
@@ -14172,7 +14199,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>649</v>
       </c>
@@ -14189,7 +14216,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>650</v>
       </c>
@@ -14206,7 +14233,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>653</v>
       </c>
@@ -14223,7 +14250,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>654</v>
       </c>
@@ -14240,7 +14267,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>656</v>
       </c>
@@ -14257,7 +14284,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>657</v>
       </c>
@@ -14274,7 +14301,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>658</v>
       </c>
@@ -14291,7 +14318,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>659</v>
       </c>
@@ -14308,7 +14335,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>660</v>
       </c>
@@ -14325,7 +14352,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>662</v>
       </c>
@@ -14342,7 +14369,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>663</v>
       </c>
@@ -14359,7 +14386,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>665</v>
       </c>
@@ -14376,7 +14403,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>667</v>
       </c>
@@ -14393,7 +14420,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>668</v>
       </c>
@@ -14410,7 +14437,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>669</v>
       </c>
@@ -14427,7 +14454,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>670</v>
       </c>
@@ -14444,7 +14471,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>671</v>
       </c>
@@ -14461,7 +14488,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>672</v>
       </c>
@@ -14495,7 +14522,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>675</v>
       </c>
@@ -14512,7 +14539,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>676</v>
       </c>
@@ -14529,7 +14556,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>677</v>
       </c>
@@ -14546,7 +14573,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>679</v>
       </c>
@@ -14563,7 +14590,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>682</v>
       </c>
@@ -14580,7 +14607,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>683</v>
       </c>
@@ -14597,7 +14624,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>684</v>
       </c>
@@ -14614,7 +14641,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>685</v>
       </c>
@@ -14631,7 +14658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>686</v>
       </c>
@@ -14648,7 +14675,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>687</v>
       </c>
@@ -14665,7 +14692,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>688</v>
       </c>
@@ -14682,7 +14709,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>689</v>
       </c>
@@ -14699,7 +14726,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>690</v>
       </c>
@@ -14716,7 +14743,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>691</v>
       </c>
@@ -14733,7 +14760,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>692</v>
       </c>
@@ -14750,7 +14777,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>695</v>
       </c>
@@ -14767,7 +14794,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>696</v>
       </c>
@@ -14784,7 +14811,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>697</v>
       </c>
@@ -14801,7 +14828,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>699</v>
       </c>
@@ -14818,7 +14845,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>700</v>
       </c>
@@ -14835,7 +14862,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>701</v>
       </c>
@@ -14852,7 +14879,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>703</v>
       </c>
@@ -14869,7 +14896,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>704</v>
       </c>
@@ -14886,7 +14913,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>705</v>
       </c>
@@ -14903,7 +14930,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>708</v>
       </c>
@@ -14920,7 +14947,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>709</v>
       </c>
@@ -14937,7 +14964,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>710</v>
       </c>
@@ -14954,7 +14981,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>713</v>
       </c>
@@ -14971,7 +14998,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>714</v>
       </c>
@@ -14988,7 +15015,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>716</v>
       </c>
@@ -15005,7 +15032,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>717</v>
       </c>
@@ -15022,7 +15049,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>718</v>
       </c>
@@ -15056,7 +15083,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>721</v>
       </c>
@@ -15073,7 +15100,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>722</v>
       </c>
@@ -15090,7 +15117,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>723</v>
       </c>
@@ -15107,7 +15134,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>727</v>
       </c>
@@ -15124,7 +15151,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>728</v>
       </c>
@@ -15141,7 +15168,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>729</v>
       </c>
@@ -15158,7 +15185,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>730</v>
       </c>
@@ -15175,7 +15202,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>731</v>
       </c>
@@ -15192,7 +15219,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>732</v>
       </c>
@@ -15209,7 +15236,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>733</v>
       </c>
@@ -15226,7 +15253,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>734</v>
       </c>
@@ -15243,7 +15270,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>735</v>
       </c>
@@ -15260,7 +15287,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>736</v>
       </c>
@@ -15277,7 +15304,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>741</v>
       </c>
@@ -15294,7 +15321,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>742</v>
       </c>
@@ -15311,7 +15338,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>743</v>
       </c>
@@ -15328,7 +15355,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>744</v>
       </c>
@@ -15345,7 +15372,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>745</v>
       </c>
@@ -15362,7 +15389,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>747</v>
       </c>
@@ -15379,7 +15406,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>750</v>
       </c>
@@ -15396,7 +15423,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>751</v>
       </c>
@@ -15413,7 +15440,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>752</v>
       </c>
@@ -15430,7 +15457,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>754</v>
       </c>
@@ -15447,7 +15474,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>756</v>
       </c>
@@ -15464,7 +15491,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>758</v>
       </c>
@@ -15481,7 +15508,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>759</v>
       </c>
@@ -15498,7 +15525,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>760</v>
       </c>
@@ -15515,7 +15542,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>761</v>
       </c>
@@ -15532,7 +15559,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>762</v>
       </c>
@@ -15549,7 +15576,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>763</v>
       </c>
@@ -15566,7 +15593,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>764</v>
       </c>
@@ -15600,7 +15627,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>766</v>
       </c>
@@ -15617,7 +15644,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>767</v>
       </c>
@@ -15634,7 +15661,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>769</v>
       </c>
@@ -15651,7 +15678,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>770</v>
       </c>
@@ -15668,7 +15695,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>772</v>
       </c>
@@ -15685,7 +15712,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>773</v>
       </c>
@@ -15702,7 +15729,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>774</v>
       </c>
@@ -15736,7 +15763,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>776</v>
       </c>
@@ -15753,7 +15780,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>777</v>
       </c>
@@ -15770,7 +15797,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>778</v>
       </c>
@@ -15787,7 +15814,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>779</v>
       </c>
@@ -15804,7 +15831,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>782</v>
       </c>
@@ -15821,7 +15848,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>784</v>
       </c>
@@ -15838,7 +15865,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>785</v>
       </c>
@@ -15855,7 +15882,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>786</v>
       </c>
@@ -15872,7 +15899,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>787</v>
       </c>
@@ -15889,7 +15916,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>789</v>
       </c>
@@ -15906,7 +15933,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>790</v>
       </c>
@@ -15923,7 +15950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>792</v>
       </c>
@@ -15940,7 +15967,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>793</v>
       </c>
@@ -15957,7 +15984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>794</v>
       </c>
@@ -15974,7 +16001,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>795</v>
       </c>
@@ -15991,7 +16018,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>796</v>
       </c>
@@ -16008,7 +16035,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>800</v>
       </c>
@@ -16025,7 +16052,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>801</v>
       </c>
@@ -16042,7 +16069,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>802</v>
       </c>
@@ -16059,7 +16086,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>803</v>
       </c>
@@ -16076,7 +16103,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>804</v>
       </c>
@@ -16093,7 +16120,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>805</v>
       </c>
@@ -16110,7 +16137,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>806</v>
       </c>
@@ -16127,7 +16154,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>807</v>
       </c>
@@ -16144,7 +16171,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>808</v>
       </c>
@@ -16161,7 +16188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>809</v>
       </c>
@@ -16178,7 +16205,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>810</v>
       </c>
@@ -16195,7 +16222,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>813</v>
       </c>
@@ -16212,7 +16239,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>814</v>
       </c>
@@ -16246,7 +16273,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>666</v>
       </c>
@@ -16261,7 +16288,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>430</v>
       </c>
@@ -16278,7 +16305,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>500</v>
       </c>
@@ -16295,7 +16322,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>308</v>
       </c>
@@ -16312,7 +16339,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>144</v>
       </c>
@@ -16329,7 +16356,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>157</v>
       </c>
@@ -16346,7 +16373,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>300</v>
       </c>
@@ -16363,7 +16390,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>454</v>
       </c>
@@ -16380,7 +16407,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>403</v>
       </c>
@@ -16397,7 +16424,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>797</v>
       </c>
@@ -16414,7 +16441,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>644</v>
       </c>
@@ -16431,7 +16458,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>455</v>
       </c>
@@ -16448,7 +16475,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>225</v>
       </c>
@@ -16465,7 +16492,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>678</v>
       </c>
@@ -16482,7 +16509,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>706</v>
       </c>
@@ -16497,7 +16524,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>739</v>
       </c>
@@ -16512,7 +16539,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>749</v>
       </c>
@@ -16529,7 +16556,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>527</v>
       </c>
@@ -16546,7 +16573,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>30</v>
       </c>
@@ -16563,7 +16590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>513</v>
       </c>
@@ -16580,7 +16607,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>55</v>
       </c>
@@ -16597,7 +16624,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>468</v>
       </c>
@@ -16648,7 +16675,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>146</v>
       </c>
@@ -16665,7 +16692,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>385</v>
       </c>
@@ -16682,7 +16709,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>126</v>
       </c>
@@ -16699,7 +16726,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>54</v>
       </c>
@@ -16716,7 +16743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>551</v>
       </c>
@@ -16733,7 +16760,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>352</v>
       </c>
@@ -16750,7 +16777,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>645</v>
       </c>
@@ -16767,7 +16794,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>674</v>
       </c>
@@ -16784,7 +16811,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>755</v>
       </c>
@@ -16801,7 +16828,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>680</v>
       </c>
@@ -16818,7 +16845,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>664</v>
       </c>
@@ -16835,7 +16862,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>581</v>
       </c>
@@ -16852,7 +16879,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>603</v>
       </c>
@@ -16869,7 +16896,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>528</v>
       </c>
@@ -16886,7 +16913,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>740</v>
       </c>
@@ -16903,7 +16930,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>583</v>
       </c>
@@ -16920,7 +16947,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>633</v>
       </c>
@@ -16937,7 +16964,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>415</v>
       </c>
@@ -16954,7 +16981,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>648</v>
       </c>
@@ -16971,7 +16998,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>651</v>
       </c>
@@ -16988,7 +17015,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>310</v>
       </c>
@@ -17005,7 +17032,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>622</v>
       </c>
@@ -17022,7 +17049,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>487</v>
       </c>
@@ -17039,7 +17066,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>482</v>
       </c>
@@ -17056,7 +17083,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>422</v>
       </c>
@@ -17073,7 +17100,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>435</v>
       </c>
@@ -17090,7 +17117,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>45</v>
       </c>
@@ -17107,7 +17134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>63</v>
       </c>
@@ -17124,7 +17151,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>748</v>
       </c>
@@ -17141,7 +17168,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>526</v>
       </c>
@@ -17158,7 +17185,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>354</v>
       </c>
@@ -17175,7 +17202,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>133</v>
       </c>
@@ -17192,7 +17219,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>757</v>
       </c>
@@ -17209,7 +17236,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>132</v>
       </c>
@@ -17226,7 +17253,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>737</v>
       </c>
@@ -17243,7 +17270,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>466</v>
       </c>
@@ -17260,7 +17287,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>578</v>
       </c>
@@ -17277,7 +17304,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>799</v>
       </c>
@@ -17294,7 +17321,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>726</v>
       </c>
@@ -17311,7 +17338,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>702</v>
       </c>
@@ -17328,7 +17355,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>771</v>
       </c>
@@ -17345,7 +17372,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>596</v>
       </c>
@@ -17362,7 +17389,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>698</v>
       </c>
@@ -17379,7 +17406,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>238</v>
       </c>
@@ -17396,7 +17423,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>216</v>
       </c>
@@ -17413,7 +17440,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>472</v>
       </c>
@@ -17430,7 +17457,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>712</v>
       </c>
@@ -17447,7 +17474,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>591</v>
       </c>
@@ -17464,7 +17491,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>545</v>
       </c>
@@ -17481,7 +17508,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>746</v>
       </c>
@@ -17498,7 +17525,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>768</v>
       </c>
@@ -17515,7 +17542,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>275</v>
       </c>
@@ -17532,7 +17559,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>175</v>
       </c>
@@ -17549,7 +17576,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>399</v>
       </c>
@@ -17566,7 +17593,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>393</v>
       </c>
@@ -17583,7 +17610,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>694</v>
       </c>
@@ -17600,7 +17627,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>15</v>
       </c>
@@ -17617,7 +17644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>693</v>
       </c>
@@ -17634,7 +17661,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>681</v>
       </c>
@@ -17649,7 +17676,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>791</v>
       </c>
@@ -17666,7 +17693,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>655</v>
       </c>
@@ -17683,7 +17710,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>200</v>
       </c>
@@ -17700,7 +17727,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>479</v>
       </c>
@@ -17717,7 +17744,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>318</v>
       </c>
@@ -17734,7 +17761,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>652</v>
       </c>
@@ -17751,7 +17778,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>560</v>
       </c>
@@ -17768,7 +17795,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>798</v>
       </c>
@@ -17785,7 +17812,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>595</v>
       </c>
@@ -17802,7 +17829,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>643</v>
       </c>
@@ -17819,7 +17846,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>105</v>
       </c>
@@ -17836,7 +17863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>262</v>
       </c>
@@ -17853,7 +17880,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>104</v>
       </c>
@@ -17870,7 +17897,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>145</v>
       </c>
@@ -17887,7 +17914,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>543</v>
       </c>
@@ -17904,7 +17931,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>738</v>
       </c>
@@ -17921,7 +17948,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>40</v>
       </c>
@@ -17938,7 +17965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>376</v>
       </c>
@@ -17955,7 +17982,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>108</v>
       </c>
@@ -17972,7 +17999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>21</v>
       </c>
@@ -17989,7 +18016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>724</v>
       </c>
@@ -18023,7 +18050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>496</v>
       </c>
@@ -18040,7 +18067,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>14</v>
       </c>
@@ -18074,7 +18101,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>320</v>
       </c>
@@ -18089,7 +18116,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>301</v>
       </c>
@@ -18106,7 +18133,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>452</v>
       </c>
@@ -18123,7 +18150,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>222</v>
       </c>
@@ -18140,7 +18167,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>333</v>
       </c>
@@ -18157,7 +18184,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>75</v>
       </c>
@@ -18174,7 +18201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>340</v>
       </c>
@@ -18189,7 +18216,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>189</v>
       </c>
@@ -18206,7 +18233,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>227</v>
       </c>
@@ -18223,7 +18250,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>73</v>
       </c>
@@ -18238,7 +18265,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>193</v>
       </c>
@@ -18255,7 +18282,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>812</v>
       </c>
@@ -18272,7 +18299,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>715</v>
       </c>
@@ -18289,7 +18316,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>163</v>
       </c>
@@ -18306,7 +18333,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>420</v>
       </c>
@@ -18323,7 +18350,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>334</v>
       </c>
@@ -18340,7 +18367,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>245</v>
       </c>
@@ -18357,7 +18384,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>28</v>
       </c>
@@ -18374,7 +18401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>661</v>
       </c>
@@ -18391,7 +18418,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>544</v>
       </c>
@@ -18408,7 +18435,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>115</v>
       </c>
@@ -18425,7 +18452,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>719</v>
       </c>
@@ -18440,7 +18467,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>788</v>
       </c>
@@ -18455,7 +18482,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>577</v>
       </c>
@@ -18472,7 +18499,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>61</v>
       </c>
@@ -18489,7 +18516,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>495</v>
       </c>
@@ -18506,7 +18533,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>311</v>
       </c>
@@ -18523,7 +18550,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>402</v>
       </c>
@@ -18540,7 +18567,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>390</v>
       </c>
@@ -18557,7 +18584,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>711</v>
       </c>
@@ -18574,7 +18601,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>573</v>
       </c>
@@ -18608,7 +18635,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>38</v>
       </c>
@@ -18625,7 +18652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>280</v>
       </c>
@@ -18642,7 +18669,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>273</v>
       </c>
@@ -18659,7 +18686,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>753</v>
       </c>
@@ -18676,7 +18703,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>783</v>
       </c>
@@ -18693,7 +18720,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>620</v>
       </c>
@@ -18710,7 +18737,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>522</v>
       </c>
@@ -18727,7 +18754,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>322</v>
       </c>
@@ -18744,7 +18771,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>130</v>
       </c>
@@ -18761,7 +18788,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>600</v>
       </c>
@@ -18778,7 +18805,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>268</v>
       </c>
@@ -18795,7 +18822,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>520</v>
       </c>
@@ -18812,7 +18839,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>188</v>
       </c>
@@ -18829,7 +18856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>725</v>
       </c>
@@ -18846,7 +18873,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>605</v>
       </c>
@@ -18861,7 +18888,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>43</v>
       </c>
@@ -18878,7 +18905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>438</v>
       </c>
@@ -18895,7 +18922,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>26</v>
       </c>
@@ -18912,7 +18939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>180</v>
       </c>
@@ -18929,7 +18956,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>111</v>
       </c>
@@ -18946,7 +18973,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>11</v>
       </c>
@@ -18963,7 +18990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>23</v>
       </c>
@@ -18980,7 +19007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>212</v>
       </c>
@@ -18995,7 +19022,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>143</v>
       </c>
@@ -19010,7 +19037,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>256</v>
       </c>
@@ -19027,7 +19054,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>205</v>
       </c>
@@ -19042,7 +19069,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>592</v>
       </c>
@@ -19059,7 +19086,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>114</v>
       </c>
@@ -19076,7 +19103,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>470</v>
       </c>
@@ -19093,7 +19120,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>530</v>
       </c>
@@ -19110,7 +19137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>518</v>
       </c>
@@ -19127,7 +19154,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>440</v>
       </c>
@@ -19144,7 +19171,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>565</v>
       </c>
@@ -19161,7 +19188,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>477</v>
       </c>
@@ -19178,7 +19205,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>439</v>
       </c>
@@ -19195,7 +19222,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>781</v>
       </c>
@@ -19212,7 +19239,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>272</v>
       </c>
@@ -19229,7 +19256,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>59</v>
       </c>
@@ -19246,7 +19273,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>25</v>
       </c>
@@ -19263,7 +19290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>47</v>
       </c>
@@ -19280,7 +19307,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>135</v>
       </c>
@@ -19295,7 +19322,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>57</v>
       </c>
@@ -19312,7 +19339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>412</v>
       </c>
@@ -19329,7 +19356,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>151</v>
       </c>
@@ -19346,7 +19373,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>349</v>
       </c>
@@ -19363,7 +19390,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>12</v>
       </c>
@@ -19380,7 +19407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>478</v>
       </c>
@@ -19397,7 +19424,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>183</v>
       </c>
@@ -19414,7 +19441,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>815</v>
       </c>
@@ -19429,7 +19456,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>201</v>
       </c>
@@ -19446,7 +19473,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>373</v>
       </c>
@@ -19463,7 +19490,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>20</v>
       </c>
@@ -19480,7 +19507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>396</v>
       </c>
@@ -19497,7 +19524,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>492</v>
       </c>
@@ -19514,7 +19541,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>404</v>
       </c>
@@ -19531,7 +19558,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>347</v>
       </c>
@@ -19565,7 +19592,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>449</v>
       </c>
@@ -19582,7 +19609,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>109</v>
       </c>
@@ -19599,7 +19626,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>113</v>
       </c>
@@ -19616,7 +19643,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>623</v>
       </c>
@@ -19633,7 +19660,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>463</v>
       </c>
@@ -19650,7 +19677,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>124</v>
       </c>
@@ -19667,7 +19694,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>309</v>
       </c>
@@ -19684,7 +19711,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>37</v>
       </c>
@@ -19699,7 +19726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>371</v>
       </c>
@@ -19716,7 +19743,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>137</v>
       </c>
@@ -19731,7 +19758,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>81</v>
       </c>
@@ -19746,7 +19773,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>253</v>
       </c>
@@ -19763,7 +19790,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>707</v>
       </c>
@@ -19780,7 +19807,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>780</v>
       </c>
@@ -19797,7 +19824,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>346</v>
       </c>
@@ -19814,7 +19841,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>206</v>
       </c>
@@ -19831,7 +19858,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>72</v>
       </c>
@@ -19848,7 +19875,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>386</v>
       </c>
@@ -19865,7 +19892,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>224</v>
       </c>
@@ -19882,7 +19909,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>619</v>
       </c>
@@ -19899,7 +19926,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>593</v>
       </c>
@@ -19915,6 +19942,35 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E815">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Amargadhi"/>
+        <filter val="Bannigadhi Jayagadh"/>
+        <filter val="Bansagadhi"/>
+        <filter val="Baragadhi"/>
+        <filter val="Belkotgadhi"/>
+        <filter val="Chaudandigadhi"/>
+        <filter val="Chautara SangachokGadhi"/>
+        <filter val="Chisankhugadhi"/>
+        <filter val="Dhangadhi"/>
+        <filter val="Dhangadhimai"/>
+        <filter val="Gadhi"/>
+        <filter val="Gadhimai"/>
+        <filter val="Hariharpurgadhi"/>
+        <filter val="Hatuwagadhi"/>
+        <filter val="Kepilasagadhi"/>
+        <filter val="Mahagadhimai"/>
+        <filter val="Makawanpurgadhi"/>
+        <filter val="Mathagadhi"/>
+        <filter val="Parsagadhi"/>
+        <filter val="Rupakot Majhuwagadhi"/>
+        <filter val="Sangurigadhi"/>
+        <filter val="Suryagadhi"/>
+        <filter val="Udayapurgadhi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -19922,130 +19978,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1682</v>
+      </c>
       <c r="C1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D1" t="s">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B2">
+        <v>11759</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>43105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>11759</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>43105</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1708</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -20060,13 +20122,13 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>300000</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>300000</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20096,39 +20158,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>11810</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H3">
+        <v>43109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>11810</v>
-      </c>
-      <c r="D3">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="I3">
-        <v>43109</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1708</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -20143,13 +20205,13 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -20178,37 +20240,40 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B4">
+        <v>11820</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>43109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>11820</v>
-      </c>
-      <c r="D4">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>43109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1708</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -20223,25 +20288,25 @@
         <v>0</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>55000</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>0</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>55000</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -20261,37 +20326,40 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B5">
+        <v>11895</v>
+      </c>
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>43113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>11895</v>
-      </c>
-      <c r="D5">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>43113</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1708</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -20306,13 +20374,13 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>200000</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>200000</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -20339,42 +20407,45 @@
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B6">
+        <v>11902</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>43113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>11902</v>
-      </c>
-      <c r="D6">
-        <v>175</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>43113</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1708</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -20389,13 +20460,13 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>365000</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>365000</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -20404,10 +20475,10 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -20427,37 +20498,40 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B7">
+        <v>11912</v>
+      </c>
+      <c r="C7">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>43115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>11912</v>
-      </c>
-      <c r="D7">
-        <v>185</v>
-      </c>
-      <c r="E7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>43115</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1708</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -20472,13 +20546,13 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>300000</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>300000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -20487,10 +20561,10 @@
         <v>0</v>
       </c>
       <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -20510,37 +20584,40 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8">
+        <v>12006</v>
+      </c>
+      <c r="C8">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>43127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J8">
         <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>12006</v>
-      </c>
-      <c r="D8">
-        <v>279</v>
-      </c>
-      <c r="E8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>43127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1708</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -20555,22 +20632,22 @@
         <v>0</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>7</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -20585,42 +20662,45 @@
         <v>0</v>
       </c>
       <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AA8">
-        <v>4</v>
-      </c>
-      <c r="AB8">
+      <c r="AB8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B9">
+        <v>12021</v>
+      </c>
+      <c r="C9">
+        <v>294</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>43130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J9">
         <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>12021</v>
-      </c>
-      <c r="D9">
-        <v>294</v>
-      </c>
-      <c r="E9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>43130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1708</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -20635,13 +20715,13 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>500000</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>500000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -20650,10 +20730,10 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -20673,37 +20753,40 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B10">
+        <v>12210</v>
+      </c>
+      <c r="C10">
+        <v>483</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>43152</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J10">
         <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>1718</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>12210</v>
-      </c>
-      <c r="D10">
-        <v>483</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>621</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>43152</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1708</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -20718,25 +20801,25 @@
         <v>0</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1256000</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1256000</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -20756,37 +20839,40 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B11">
+        <v>12261</v>
+      </c>
+      <c r="C11">
+        <v>534</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H11">
+        <v>43159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J11">
         <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>12261</v>
-      </c>
-      <c r="D11">
-        <v>534</v>
-      </c>
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" t="s">
-        <v>652</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1721</v>
-      </c>
-      <c r="I11">
-        <v>43159</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1708</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -20801,13 +20887,13 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>60000</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>60000</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -20816,10 +20902,10 @@
         <v>0</v>
       </c>
       <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
         <v>0</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -20839,58 +20925,61 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12">
+        <v>13383</v>
+      </c>
+      <c r="C12">
+        <v>1656</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>43251</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="AC11" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>13383</v>
-      </c>
-      <c r="D12">
-        <v>1656</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G12">
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>43251</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1723</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>0</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -20919,37 +21008,40 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B13">
+        <v>13471</v>
+      </c>
+      <c r="C13">
+        <v>1744</v>
+      </c>
+      <c r="D13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>43260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J13">
         <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>13471</v>
-      </c>
-      <c r="D13">
-        <v>1744</v>
-      </c>
-      <c r="E13" t="s">
-        <v>473</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>43260</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1725</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -20964,13 +21056,13 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>15000000</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>15000000</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21002,37 +21094,40 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14">
+        <v>13999</v>
+      </c>
+      <c r="C14">
+        <v>2272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>43316</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J14">
         <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>13999</v>
-      </c>
-      <c r="D14">
-        <v>2272</v>
-      </c>
-      <c r="E14" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="I14">
-        <v>43316</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1727</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21047,13 +21142,13 @@
         <v>0</v>
       </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>60000</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>60000</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21065,10 +21160,10 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
         <v>0</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21085,43 +21180,40 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B15">
+        <v>14137</v>
+      </c>
+      <c r="C15">
+        <v>2410</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>43326</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J15">
         <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1728</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C15">
-        <v>14137</v>
-      </c>
-      <c r="D15">
-        <v>2410</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>43326</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1727</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -21136,13 +21228,13 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1058000</v>
+      </c>
+      <c r="Q15">
         <v>0</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>1058000</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21151,10 +21243,10 @@
         <v>0</v>
       </c>
       <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>0</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -21174,43 +21266,40 @@
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B16">
+        <v>14419</v>
+      </c>
+      <c r="C16">
+        <v>2692</v>
+      </c>
+      <c r="D16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>43349</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J16">
         <v>0</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1730</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C16">
-        <v>14419</v>
-      </c>
-      <c r="D16">
-        <v>2692</v>
-      </c>
-      <c r="E16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>43349</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1723</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -21225,10 +21314,10 @@
         <v>0</v>
       </c>
       <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21255,63 +21344,60 @@
         <v>0</v>
       </c>
       <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B17">
+        <v>14647</v>
+      </c>
+      <c r="C17">
+        <v>2920</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H17">
+        <v>43375</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1732</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C17">
-        <v>14647</v>
-      </c>
-      <c r="D17">
-        <v>2920</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I17">
-        <v>43375</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21343,37 +21429,40 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B18">
+        <v>15278</v>
+      </c>
+      <c r="C18">
+        <v>3551</v>
+      </c>
+      <c r="D18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>43438</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J18">
         <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>15278</v>
-      </c>
-      <c r="D18">
-        <v>3551</v>
-      </c>
-      <c r="E18" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>43438</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1736</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -21388,13 +21477,13 @@
         <v>0</v>
       </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
         <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -21423,34 +21512,37 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AC18" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B19">
+        <v>17706</v>
+      </c>
+      <c r="C19">
+        <v>5979</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>43608</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J19">
         <v>0</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>17706</v>
-      </c>
-      <c r="D19">
-        <v>5979</v>
-      </c>
-      <c r="E19" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>43608</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1708</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -21465,13 +21557,13 @@
         <v>0</v>
       </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>295000</v>
+      </c>
+      <c r="Q19">
         <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>295000</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -21480,10 +21572,10 @@
         <v>0</v>
       </c>
       <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>0</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -21503,46 +21595,43 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B20">
+        <v>20208</v>
+      </c>
+      <c r="C20">
+        <v>8481</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H20">
+        <v>43832</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J20">
         <v>0</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B20" t="s">
-        <v>567</v>
-      </c>
-      <c r="C20">
-        <v>20208</v>
-      </c>
-      <c r="D20">
-        <v>8481</v>
-      </c>
-      <c r="E20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1739</v>
-      </c>
-      <c r="I20">
-        <v>43832</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1708</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -21557,13 +21646,13 @@
         <v>0</v>
       </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1017500</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1017500</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -21572,10 +21661,10 @@
         <v>0</v>
       </c>
       <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>0</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -21593,12 +21682,9 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AC20" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -24739,8 +24825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD220"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
+++ b/desinventar/LocalBody_VDC_MUNICIPALITY_for_drr_EDITED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" tabRatio="322"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" tabRatio="624" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DRR_2_DES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="1753">
   <si>
     <t>District</t>
   </si>
@@ -6114,7 +6114,7 @@
   </sheetPr>
   <dimension ref="A1:E815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
@@ -19981,7 +19981,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24825,16 +24825,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24881,6 +24881,9 @@
       <c r="C3" t="s">
         <v>1252</v>
       </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
       <c r="E3" t="s">
         <v>1252</v>
       </c>
@@ -25116,6 +25119,9 @@
       <c r="C17" t="s">
         <v>1320</v>
       </c>
+      <c r="D17" t="s">
+        <v>1741</v>
+      </c>
       <c r="E17" t="s">
         <v>1321</v>
       </c>
@@ -25130,6 +25136,9 @@
       <c r="C18" t="s">
         <v>1382</v>
       </c>
+      <c r="D18" t="s">
+        <v>1751</v>
+      </c>
       <c r="E18" t="s">
         <v>1383</v>
       </c>
@@ -26266,6 +26275,9 @@
       <c r="C85" t="s">
         <v>1277</v>
       </c>
+      <c r="D85" t="s">
+        <v>1742</v>
+      </c>
       <c r="E85" t="s">
         <v>1278</v>
       </c>
@@ -26705,6 +26717,9 @@
       <c r="C111" t="s">
         <v>621</v>
       </c>
+      <c r="D111" t="s">
+        <v>1744</v>
+      </c>
       <c r="E111" t="s">
         <v>622</v>
       </c>
@@ -26804,6 +26819,9 @@
       <c r="C117" t="s">
         <v>652</v>
       </c>
+      <c r="D117" t="s">
+        <v>1604</v>
+      </c>
       <c r="E117" t="s">
         <v>652</v>
       </c>
@@ -27472,6 +27490,9 @@
       <c r="C157" t="s">
         <v>1139</v>
       </c>
+      <c r="D157" t="s">
+        <v>1743</v>
+      </c>
       <c r="E157" t="s">
         <v>1140</v>
       </c>
@@ -27605,6 +27626,9 @@
       <c r="C165" t="s">
         <v>418</v>
       </c>
+      <c r="D165" t="s">
+        <v>1745</v>
+      </c>
       <c r="E165" t="s">
         <v>419</v>
       </c>
@@ -27619,6 +27643,9 @@
       <c r="C166" t="s">
         <v>295</v>
       </c>
+      <c r="D166" t="s">
+        <v>1746</v>
+      </c>
       <c r="E166" t="s">
         <v>296</v>
       </c>
@@ -27650,6 +27677,9 @@
       <c r="C168" t="s">
         <v>404</v>
       </c>
+      <c r="D168" t="s">
+        <v>787</v>
+      </c>
       <c r="E168" t="s">
         <v>405</v>
       </c>
@@ -27902,6 +27932,9 @@
       <c r="C183" t="s">
         <v>282</v>
       </c>
+      <c r="D183" t="s">
+        <v>1748</v>
+      </c>
       <c r="E183" t="s">
         <v>283</v>
       </c>
@@ -28035,6 +28068,9 @@
       <c r="C191" t="s">
         <v>1510</v>
       </c>
+      <c r="D191" t="s">
+        <v>567</v>
+      </c>
       <c r="E191" t="s">
         <v>1510</v>
       </c>
@@ -28304,6 +28340,9 @@
       <c r="C207" t="s">
         <v>83</v>
       </c>
+      <c r="D207" t="s">
+        <v>1750</v>
+      </c>
       <c r="E207" t="s">
         <v>84</v>
       </c>
@@ -28335,6 +28374,9 @@
       <c r="C209" t="s">
         <v>286</v>
       </c>
+      <c r="D209" t="s">
+        <v>1747</v>
+      </c>
       <c r="E209" t="s">
         <v>287</v>
       </c>
@@ -28349,6 +28391,9 @@
       <c r="C210" t="s">
         <v>177</v>
       </c>
+      <c r="D210" t="s">
+        <v>1749</v>
+      </c>
       <c r="E210" t="s">
         <v>178</v>
       </c>
@@ -28515,6 +28560,9 @@
       </c>
       <c r="C220" t="s">
         <v>1114</v>
+      </c>
+      <c r="D220" t="s">
+        <v>693</v>
       </c>
       <c r="E220" t="s">
         <v>1115</v>
